--- a/city-metro-visualization/data/广州/basic_metro_info.xlsx
+++ b/city-metro-visualization/data/广州/basic_metro_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="1017">
   <si>
     <t>line_name</t>
   </si>
@@ -547,6 +547,36 @@
     <t>谢村</t>
   </si>
   <si>
+    <t>滘心</t>
+  </si>
+  <si>
+    <t>亭岗</t>
+  </si>
+  <si>
+    <t>石井</t>
+  </si>
+  <si>
+    <t>小坪</t>
+  </si>
+  <si>
+    <t>石潭</t>
+  </si>
+  <si>
+    <t>聚龙</t>
+  </si>
+  <si>
+    <t>上步</t>
+  </si>
+  <si>
+    <t>同德</t>
+  </si>
+  <si>
+    <t>鹅掌坦</t>
+  </si>
+  <si>
+    <t>华林寺</t>
+  </si>
+  <si>
     <t>同福西</t>
   </si>
   <si>
@@ -856,7 +886,7 @@
     <t>chang shou lu</t>
   </si>
   <si>
-    <t>chen jia ci</t>
+    <t>ChenJiaCi</t>
   </si>
   <si>
     <t>xi men kou</t>
@@ -1117,7 +1147,7 @@
     <t>xi chang</t>
   </si>
   <si>
-    <t>xi cun</t>
+    <t>XiCun</t>
   </si>
   <si>
     <t>xiao bei</t>
@@ -1219,7 +1249,7 @@
     <t>yi de lu</t>
   </si>
   <si>
-    <t>wen hua gong yuan</t>
+    <t>WenHua GongYuan</t>
   </si>
   <si>
     <t>ru yi fang</t>
@@ -1252,7 +1282,34 @@
     <t>xie cun</t>
   </si>
   <si>
-    <t>WenHua GongYuan</t>
+    <t>JiaoXin</t>
+  </si>
+  <si>
+    <t>TingGang</t>
+  </si>
+  <si>
+    <t>ShiJing</t>
+  </si>
+  <si>
+    <t>XiaoPing</t>
+  </si>
+  <si>
+    <t>ShiTan</t>
+  </si>
+  <si>
+    <t>JuLong</t>
+  </si>
+  <si>
+    <t>ShangBu</t>
+  </si>
+  <si>
+    <t>TongDe</t>
+  </si>
+  <si>
+    <t>EZhangTan</t>
+  </si>
+  <si>
+    <t>HuaLinSi</t>
   </si>
   <si>
     <t>Tong FuXi</t>
@@ -1954,6 +2011,36 @@
     <t>113.295832</t>
   </si>
   <si>
+    <t>113.216982</t>
+  </si>
+  <si>
+    <t>113.219962</t>
+  </si>
+  <si>
+    <t>113.231799</t>
+  </si>
+  <si>
+    <t>113.243052</t>
+  </si>
+  <si>
+    <t>113.241010</t>
+  </si>
+  <si>
+    <t>113.238751</t>
+  </si>
+  <si>
+    <t>113.235759</t>
+  </si>
+  <si>
+    <t>113.234705</t>
+  </si>
+  <si>
+    <t>113.235849</t>
+  </si>
+  <si>
+    <t>113.247287</t>
+  </si>
+  <si>
     <t>113.252403</t>
   </si>
   <si>
@@ -2657,6 +2744,36 @@
   </si>
   <si>
     <t>22.990579</t>
+  </si>
+  <si>
+    <t>23.236888</t>
+  </si>
+  <si>
+    <t>23.222616</t>
+  </si>
+  <si>
+    <t>23.211101</t>
+  </si>
+  <si>
+    <t>23.200518</t>
+  </si>
+  <si>
+    <t>23.187843</t>
+  </si>
+  <si>
+    <t>23.181252</t>
+  </si>
+  <si>
+    <t>23.170978</t>
+  </si>
+  <si>
+    <t>23.163525</t>
+  </si>
+  <si>
+    <t>23.156363</t>
+  </si>
+  <si>
+    <t>23.118082</t>
   </si>
   <si>
     <t>23.101546</t>
@@ -3305,7 +3422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H274"/>
+  <dimension ref="A1:H285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3351,16 +3468,16 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="H2" t="s">
-        <v>743</v>
+        <v>772</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3377,16 +3494,16 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="H3" t="s">
-        <v>744</v>
+        <v>773</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3403,16 +3520,16 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="H4" t="s">
-        <v>745</v>
+        <v>774</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3429,16 +3546,16 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="H5" t="s">
-        <v>746</v>
+        <v>775</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3455,16 +3572,16 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="H6" t="s">
-        <v>747</v>
+        <v>776</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3481,16 +3598,16 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="H7" t="s">
-        <v>748</v>
+        <v>777</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3507,16 +3624,16 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="H8" t="s">
-        <v>749</v>
+        <v>778</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3533,16 +3650,16 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="H9" t="s">
-        <v>750</v>
+        <v>779</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3559,16 +3676,16 @@
         <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="H10" t="s">
-        <v>751</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3585,16 +3702,16 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="H11" t="s">
-        <v>752</v>
+        <v>781</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3611,16 +3728,16 @@
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="F12">
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="H12" t="s">
-        <v>753</v>
+        <v>782</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3637,16 +3754,16 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="F13">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="H13" t="s">
-        <v>754</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3663,16 +3780,16 @@
         <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F14">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="H14" t="s">
-        <v>755</v>
+        <v>784</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3689,16 +3806,16 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="F15">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="H15" t="s">
-        <v>756</v>
+        <v>785</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3715,16 +3832,16 @@
         <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="F16">
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="H16" t="s">
-        <v>757</v>
+        <v>786</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3741,16 +3858,16 @@
         <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F17">
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="H17" t="s">
-        <v>758</v>
+        <v>787</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3767,16 +3884,16 @@
         <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="H18" t="s">
-        <v>759</v>
+        <v>788</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3793,16 +3910,16 @@
         <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="H19" t="s">
-        <v>760</v>
+        <v>789</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3819,16 +3936,16 @@
         <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="H20" t="s">
-        <v>761</v>
+        <v>790</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3845,16 +3962,16 @@
         <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="F21">
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="H21" t="s">
-        <v>762</v>
+        <v>791</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3871,16 +3988,16 @@
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="F22">
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="H22" t="s">
-        <v>763</v>
+        <v>792</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3897,16 +4014,16 @@
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F23">
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="H23" t="s">
-        <v>764</v>
+        <v>793</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3923,16 +4040,16 @@
         <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="F24">
         <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="H24" t="s">
-        <v>765</v>
+        <v>794</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3949,16 +4066,16 @@
         <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F25">
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="H25" t="s">
-        <v>766</v>
+        <v>795</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3975,16 +4092,16 @@
         <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F26">
         <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="H26" t="s">
-        <v>767</v>
+        <v>796</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4001,16 +4118,16 @@
         <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="F27">
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="H27" t="s">
-        <v>768</v>
+        <v>797</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4027,16 +4144,16 @@
         <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F28">
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="H28" t="s">
-        <v>769</v>
+        <v>798</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4053,16 +4170,16 @@
         <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="F29">
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="H29" t="s">
-        <v>770</v>
+        <v>799</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4079,16 +4196,16 @@
         <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F30">
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="H30" t="s">
-        <v>751</v>
+        <v>780</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4105,16 +4222,16 @@
         <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="F31">
         <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="H31" t="s">
-        <v>771</v>
+        <v>800</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4131,16 +4248,16 @@
         <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="F32">
         <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>538</v>
+        <v>557</v>
       </c>
       <c r="H32" t="s">
-        <v>772</v>
+        <v>801</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -4157,16 +4274,16 @@
         <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F33">
         <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="H33" t="s">
-        <v>773</v>
+        <v>802</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -4183,16 +4300,16 @@
         <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="F34">
         <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="H34" t="s">
-        <v>774</v>
+        <v>803</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -4209,16 +4326,16 @@
         <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="F35">
         <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="H35" t="s">
-        <v>775</v>
+        <v>804</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -4235,16 +4352,16 @@
         <v>72</v>
       </c>
       <c r="E36" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F36">
         <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="H36" t="s">
-        <v>776</v>
+        <v>805</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -4261,16 +4378,16 @@
         <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="F37">
         <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="H37" t="s">
-        <v>777</v>
+        <v>806</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -4287,16 +4404,16 @@
         <v>74</v>
       </c>
       <c r="E38" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="F38">
         <v>21</v>
       </c>
       <c r="G38" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="H38" t="s">
-        <v>778</v>
+        <v>807</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -4313,16 +4430,16 @@
         <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="F39">
         <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="H39" t="s">
-        <v>779</v>
+        <v>808</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -4339,16 +4456,16 @@
         <v>76</v>
       </c>
       <c r="E40" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F40">
         <v>23</v>
       </c>
       <c r="G40" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="H40" t="s">
-        <v>780</v>
+        <v>809</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -4365,16 +4482,16 @@
         <v>77</v>
       </c>
       <c r="E41" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="F41">
         <v>24</v>
       </c>
       <c r="G41" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="H41" t="s">
-        <v>781</v>
+        <v>810</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -4391,16 +4508,16 @@
         <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="H42" t="s">
-        <v>782</v>
+        <v>811</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -4417,16 +4534,16 @@
         <v>79</v>
       </c>
       <c r="E43" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="F43">
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="H43" t="s">
-        <v>783</v>
+        <v>812</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -4443,16 +4560,16 @@
         <v>80</v>
       </c>
       <c r="E44" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="F44">
         <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="H44" t="s">
-        <v>784</v>
+        <v>813</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -4469,16 +4586,16 @@
         <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="F45">
         <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="H45" t="s">
-        <v>785</v>
+        <v>814</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -4495,16 +4612,16 @@
         <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="F46">
         <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="H46" t="s">
-        <v>786</v>
+        <v>815</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -4521,16 +4638,16 @@
         <v>83</v>
       </c>
       <c r="E47" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="F47">
         <v>6</v>
       </c>
       <c r="G47" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="H47" t="s">
-        <v>787</v>
+        <v>816</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -4547,16 +4664,16 @@
         <v>84</v>
       </c>
       <c r="E48" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="F48">
         <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="H48" t="s">
-        <v>788</v>
+        <v>817</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4573,16 +4690,16 @@
         <v>85</v>
       </c>
       <c r="E49" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="F49">
         <v>8</v>
       </c>
       <c r="G49" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="H49" t="s">
-        <v>789</v>
+        <v>818</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4599,16 +4716,16 @@
         <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F50">
         <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="H50" t="s">
-        <v>790</v>
+        <v>819</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4625,16 +4742,16 @@
         <v>87</v>
       </c>
       <c r="E51" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="F51">
         <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="H51" t="s">
-        <v>791</v>
+        <v>820</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4651,16 +4768,16 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="F52">
         <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="H52" t="s">
-        <v>756</v>
+        <v>785</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4677,16 +4794,16 @@
         <v>88</v>
       </c>
       <c r="E53" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="F53">
         <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="H53" t="s">
-        <v>792</v>
+        <v>821</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4703,16 +4820,16 @@
         <v>89</v>
       </c>
       <c r="E54" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="F54">
         <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="H54" t="s">
-        <v>793</v>
+        <v>822</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4729,16 +4846,16 @@
         <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="F55">
         <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="H55" t="s">
-        <v>794</v>
+        <v>823</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4755,16 +4872,16 @@
         <v>91</v>
       </c>
       <c r="E56" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="F56">
         <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="H56" t="s">
-        <v>795</v>
+        <v>824</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4781,16 +4898,16 @@
         <v>92</v>
       </c>
       <c r="E57" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="F57">
         <v>16</v>
       </c>
       <c r="G57" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="H57" t="s">
-        <v>796</v>
+        <v>825</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4807,16 +4924,16 @@
         <v>93</v>
       </c>
       <c r="E58" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="H58" t="s">
-        <v>797</v>
+        <v>826</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4833,16 +4950,16 @@
         <v>94</v>
       </c>
       <c r="E59" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="F59">
         <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="H59" t="s">
-        <v>798</v>
+        <v>827</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4859,16 +4976,16 @@
         <v>95</v>
       </c>
       <c r="E60" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="F60">
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="H60" t="s">
-        <v>799</v>
+        <v>828</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4885,16 +5002,16 @@
         <v>96</v>
       </c>
       <c r="E61" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="F61">
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="H61" t="s">
-        <v>800</v>
+        <v>829</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4911,16 +5028,16 @@
         <v>97</v>
       </c>
       <c r="E62" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="F62">
         <v>5</v>
       </c>
       <c r="G62" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="H62" t="s">
-        <v>801</v>
+        <v>830</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4937,16 +5054,16 @@
         <v>77</v>
       </c>
       <c r="E63" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="F63">
         <v>6</v>
       </c>
       <c r="G63" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="H63" t="s">
-        <v>781</v>
+        <v>810</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4963,16 +5080,16 @@
         <v>98</v>
       </c>
       <c r="E64" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="F64">
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="H64" t="s">
-        <v>802</v>
+        <v>831</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4989,16 +5106,16 @@
         <v>99</v>
       </c>
       <c r="E65" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="F65">
         <v>8</v>
       </c>
       <c r="G65" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="H65" t="s">
-        <v>803</v>
+        <v>832</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -5015,16 +5132,16 @@
         <v>100</v>
       </c>
       <c r="E66" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F66">
         <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="H66" t="s">
-        <v>804</v>
+        <v>833</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -5041,16 +5158,16 @@
         <v>101</v>
       </c>
       <c r="E67" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="F67">
         <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="H67" t="s">
-        <v>805</v>
+        <v>834</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -5067,16 +5184,16 @@
         <v>102</v>
       </c>
       <c r="E68" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="F68">
         <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="H68" t="s">
-        <v>806</v>
+        <v>835</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -5093,16 +5210,16 @@
         <v>103</v>
       </c>
       <c r="E69" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="F69">
         <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="H69" t="s">
-        <v>807</v>
+        <v>836</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -5119,16 +5236,16 @@
         <v>54</v>
       </c>
       <c r="E70" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F70">
         <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="H70" t="s">
-        <v>758</v>
+        <v>787</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -5145,16 +5262,16 @@
         <v>104</v>
       </c>
       <c r="E71" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="F71">
         <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="H71" t="s">
-        <v>808</v>
+        <v>837</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -5171,16 +5288,16 @@
         <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="F72">
         <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="H72" t="s">
-        <v>756</v>
+        <v>785</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -5197,16 +5314,16 @@
         <v>105</v>
       </c>
       <c r="E73" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="H73" t="s">
-        <v>809</v>
+        <v>838</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -5223,16 +5340,16 @@
         <v>106</v>
       </c>
       <c r="E74" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="F74">
         <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="H74" t="s">
-        <v>810</v>
+        <v>839</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -5249,16 +5366,16 @@
         <v>107</v>
       </c>
       <c r="E75" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="F75">
         <v>3</v>
       </c>
       <c r="G75" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="H75" t="s">
-        <v>811</v>
+        <v>840</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -5275,16 +5392,16 @@
         <v>108</v>
       </c>
       <c r="E76" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="F76">
         <v>4</v>
       </c>
       <c r="G76" t="s">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="H76" t="s">
-        <v>812</v>
+        <v>841</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -5301,16 +5418,16 @@
         <v>109</v>
       </c>
       <c r="E77" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="F77">
         <v>5</v>
       </c>
       <c r="G77" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="H77" t="s">
-        <v>813</v>
+        <v>842</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -5327,16 +5444,16 @@
         <v>110</v>
       </c>
       <c r="E78" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="F78">
         <v>6</v>
       </c>
       <c r="G78" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="H78" t="s">
-        <v>814</v>
+        <v>843</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -5353,16 +5470,16 @@
         <v>111</v>
       </c>
       <c r="E79" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="F79">
         <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="H79" t="s">
-        <v>815</v>
+        <v>844</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -5379,16 +5496,16 @@
         <v>112</v>
       </c>
       <c r="E80" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="F80">
         <v>8</v>
       </c>
       <c r="G80" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="H80" t="s">
-        <v>816</v>
+        <v>845</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -5405,16 +5522,16 @@
         <v>113</v>
       </c>
       <c r="E81" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="F81">
         <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="H81" t="s">
-        <v>817</v>
+        <v>846</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -5431,16 +5548,16 @@
         <v>114</v>
       </c>
       <c r="E82" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="F82">
         <v>10</v>
       </c>
       <c r="G82" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="H82" t="s">
-        <v>818</v>
+        <v>847</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -5457,16 +5574,16 @@
         <v>115</v>
       </c>
       <c r="E83" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F83">
         <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="H83" t="s">
-        <v>819</v>
+        <v>848</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -5483,16 +5600,16 @@
         <v>116</v>
       </c>
       <c r="E84" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="F84">
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="H84" t="s">
-        <v>820</v>
+        <v>849</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -5509,16 +5626,16 @@
         <v>117</v>
       </c>
       <c r="E85" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F85">
         <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="H85" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -5535,16 +5652,16 @@
         <v>118</v>
       </c>
       <c r="E86" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F86">
         <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="H86" t="s">
-        <v>822</v>
+        <v>851</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -5561,16 +5678,16 @@
         <v>119</v>
       </c>
       <c r="E87" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="F87">
         <v>15</v>
       </c>
       <c r="G87" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="H87" t="s">
-        <v>823</v>
+        <v>852</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5587,16 +5704,16 @@
         <v>120</v>
       </c>
       <c r="E88" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="F88">
         <v>16</v>
       </c>
       <c r="G88" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="H88" t="s">
-        <v>824</v>
+        <v>853</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -5613,16 +5730,16 @@
         <v>121</v>
       </c>
       <c r="E89" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="F89">
         <v>17</v>
       </c>
       <c r="G89" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="H89" t="s">
-        <v>825</v>
+        <v>854</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -5639,16 +5756,16 @@
         <v>122</v>
       </c>
       <c r="E90" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="F90">
         <v>18</v>
       </c>
       <c r="G90" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="H90" t="s">
-        <v>826</v>
+        <v>855</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5665,16 +5782,16 @@
         <v>123</v>
       </c>
       <c r="E91" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F91">
         <v>19</v>
       </c>
       <c r="G91" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="H91" t="s">
-        <v>827</v>
+        <v>856</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5691,16 +5808,16 @@
         <v>124</v>
       </c>
       <c r="E92" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F92">
         <v>20</v>
       </c>
       <c r="G92" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="H92" t="s">
-        <v>828</v>
+        <v>857</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5717,16 +5834,16 @@
         <v>125</v>
       </c>
       <c r="E93" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="F93">
         <v>21</v>
       </c>
       <c r="G93" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="H93" t="s">
-        <v>829</v>
+        <v>858</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5743,16 +5860,16 @@
         <v>126</v>
       </c>
       <c r="E94" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="F94">
         <v>22</v>
       </c>
       <c r="G94" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="H94" t="s">
-        <v>830</v>
+        <v>859</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5769,16 +5886,16 @@
         <v>127</v>
       </c>
       <c r="E95" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="F95">
         <v>23</v>
       </c>
       <c r="G95" t="s">
-        <v>596</v>
+        <v>615</v>
       </c>
       <c r="H95" t="s">
-        <v>831</v>
+        <v>860</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5795,16 +5912,16 @@
         <v>128</v>
       </c>
       <c r="E96" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="H96" t="s">
-        <v>832</v>
+        <v>861</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5821,16 +5938,16 @@
         <v>129</v>
       </c>
       <c r="E97" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="F97">
         <v>2</v>
       </c>
       <c r="G97" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="H97" t="s">
-        <v>833</v>
+        <v>862</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5847,16 +5964,16 @@
         <v>130</v>
       </c>
       <c r="E98" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="F98">
         <v>3</v>
       </c>
       <c r="G98" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="H98" t="s">
-        <v>834</v>
+        <v>863</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5873,16 +5990,16 @@
         <v>131</v>
       </c>
       <c r="E99" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="F99">
         <v>4</v>
       </c>
       <c r="G99" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="H99" t="s">
-        <v>835</v>
+        <v>864</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5899,16 +6016,16 @@
         <v>132</v>
       </c>
       <c r="E100" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="F100">
         <v>5</v>
       </c>
       <c r="G100" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="H100" t="s">
-        <v>836</v>
+        <v>865</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5925,16 +6042,16 @@
         <v>69</v>
       </c>
       <c r="E101" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F101">
         <v>6</v>
       </c>
       <c r="G101" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="H101" t="s">
-        <v>773</v>
+        <v>802</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5951,16 +6068,16 @@
         <v>133</v>
       </c>
       <c r="E102" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="F102">
         <v>7</v>
       </c>
       <c r="G102" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="H102" t="s">
-        <v>837</v>
+        <v>866</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5977,16 +6094,16 @@
         <v>134</v>
       </c>
       <c r="E103" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="F103">
         <v>8</v>
       </c>
       <c r="G103" t="s">
-        <v>603</v>
+        <v>622</v>
       </c>
       <c r="H103" t="s">
-        <v>838</v>
+        <v>867</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -6003,16 +6120,16 @@
         <v>135</v>
       </c>
       <c r="E104" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="F104">
         <v>9</v>
       </c>
       <c r="G104" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="H104" t="s">
-        <v>839</v>
+        <v>868</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -6029,16 +6146,16 @@
         <v>136</v>
       </c>
       <c r="E105" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="F105">
         <v>10</v>
       </c>
       <c r="G105" t="s">
-        <v>605</v>
+        <v>624</v>
       </c>
       <c r="H105" t="s">
-        <v>840</v>
+        <v>869</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -6055,16 +6172,16 @@
         <v>51</v>
       </c>
       <c r="E106" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F106">
         <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="H106" t="s">
-        <v>755</v>
+        <v>784</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -6081,16 +6198,16 @@
         <v>137</v>
       </c>
       <c r="E107" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="F107">
         <v>12</v>
       </c>
       <c r="G107" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
       <c r="H107" t="s">
-        <v>841</v>
+        <v>870</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -6107,16 +6224,16 @@
         <v>87</v>
       </c>
       <c r="E108" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="F108">
         <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="H108" t="s">
-        <v>791</v>
+        <v>820</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -6133,16 +6250,16 @@
         <v>138</v>
       </c>
       <c r="E109" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="F109">
         <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="H109" t="s">
-        <v>842</v>
+        <v>871</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -6159,16 +6276,16 @@
         <v>139</v>
       </c>
       <c r="E110" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="F110">
         <v>15</v>
       </c>
       <c r="G110" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="H110" t="s">
-        <v>843</v>
+        <v>872</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -6185,16 +6302,16 @@
         <v>140</v>
       </c>
       <c r="E111" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="F111">
         <v>16</v>
       </c>
       <c r="G111" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
       <c r="H111" t="s">
-        <v>844</v>
+        <v>873</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -6211,16 +6328,16 @@
         <v>141</v>
       </c>
       <c r="E112" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="F112">
         <v>17</v>
       </c>
       <c r="G112" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="H112" t="s">
-        <v>845</v>
+        <v>874</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -6237,16 +6354,16 @@
         <v>107</v>
       </c>
       <c r="E113" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="F113">
         <v>18</v>
       </c>
       <c r="G113" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="H113" t="s">
-        <v>811</v>
+        <v>840</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -6263,16 +6380,16 @@
         <v>142</v>
       </c>
       <c r="E114" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="F114">
         <v>19</v>
       </c>
       <c r="G114" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="H114" t="s">
-        <v>846</v>
+        <v>875</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -6289,16 +6406,16 @@
         <v>143</v>
       </c>
       <c r="E115" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="F115">
         <v>20</v>
       </c>
       <c r="G115" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="H115" t="s">
-        <v>847</v>
+        <v>876</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -6315,16 +6432,16 @@
         <v>144</v>
       </c>
       <c r="E116" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="F116">
         <v>21</v>
       </c>
       <c r="G116" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="H116" t="s">
-        <v>848</v>
+        <v>877</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -6341,16 +6458,16 @@
         <v>145</v>
       </c>
       <c r="E117" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F117">
         <v>22</v>
       </c>
       <c r="G117" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="H117" t="s">
-        <v>849</v>
+        <v>878</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -6367,16 +6484,16 @@
         <v>146</v>
       </c>
       <c r="E118" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="F118">
         <v>23</v>
       </c>
       <c r="G118" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="H118" t="s">
-        <v>850</v>
+        <v>879</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -6393,16 +6510,16 @@
         <v>147</v>
       </c>
       <c r="E119" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="F119">
         <v>24</v>
       </c>
       <c r="G119" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="H119" t="s">
-        <v>851</v>
+        <v>880</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -6419,16 +6536,16 @@
         <v>148</v>
       </c>
       <c r="E120" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="F120">
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="H120" t="s">
-        <v>852</v>
+        <v>881</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -6445,16 +6562,16 @@
         <v>149</v>
       </c>
       <c r="E121" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="F121">
         <v>2</v>
       </c>
       <c r="G121" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="H121" t="s">
-        <v>853</v>
+        <v>882</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -6471,16 +6588,16 @@
         <v>150</v>
       </c>
       <c r="E122" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F122">
         <v>3</v>
       </c>
       <c r="G122" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
       <c r="H122" t="s">
-        <v>854</v>
+        <v>883</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -6497,16 +6614,16 @@
         <v>151</v>
       </c>
       <c r="E123" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="F123">
         <v>4</v>
       </c>
       <c r="G123" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="H123" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -6523,16 +6640,16 @@
         <v>152</v>
       </c>
       <c r="E124" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="F124">
         <v>5</v>
       </c>
       <c r="G124" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="H124" t="s">
-        <v>856</v>
+        <v>885</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -6549,16 +6666,16 @@
         <v>153</v>
       </c>
       <c r="E125" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="F125">
         <v>6</v>
       </c>
       <c r="G125" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="H125" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -6575,16 +6692,16 @@
         <v>154</v>
       </c>
       <c r="E126" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="F126">
         <v>7</v>
       </c>
       <c r="G126" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="H126" t="s">
-        <v>858</v>
+        <v>887</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -6601,16 +6718,16 @@
         <v>155</v>
       </c>
       <c r="E127" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="F127">
         <v>8</v>
       </c>
       <c r="G127" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="H127" t="s">
-        <v>859</v>
+        <v>888</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -6627,16 +6744,16 @@
         <v>156</v>
       </c>
       <c r="E128" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="F128">
         <v>9</v>
       </c>
       <c r="G128" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="H128" t="s">
-        <v>860</v>
+        <v>889</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6653,16 +6770,16 @@
         <v>157</v>
       </c>
       <c r="E129" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="F129">
         <v>10</v>
       </c>
       <c r="G129" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="H129" t="s">
-        <v>861</v>
+        <v>890</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6679,16 +6796,16 @@
         <v>158</v>
       </c>
       <c r="E130" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="F130">
         <v>11</v>
       </c>
       <c r="G130" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="H130" t="s">
-        <v>862</v>
+        <v>891</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6705,16 +6822,16 @@
         <v>92</v>
       </c>
       <c r="E131" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="F131">
         <v>12</v>
       </c>
       <c r="G131" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="H131" t="s">
-        <v>796</v>
+        <v>825</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6731,16 +6848,16 @@
         <v>103</v>
       </c>
       <c r="E132" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="F132">
         <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="H132" t="s">
-        <v>807</v>
+        <v>836</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6757,16 +6874,16 @@
         <v>159</v>
       </c>
       <c r="E133" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="F133">
         <v>14</v>
       </c>
       <c r="G133" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="H133" t="s">
-        <v>863</v>
+        <v>892</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6783,16 +6900,16 @@
         <v>160</v>
       </c>
       <c r="E134" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="F134">
         <v>15</v>
       </c>
       <c r="G134" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
       <c r="H134" t="s">
-        <v>864</v>
+        <v>893</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6809,16 +6926,16 @@
         <v>161</v>
       </c>
       <c r="E135" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="F135">
         <v>16</v>
       </c>
       <c r="G135" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="H135" t="s">
-        <v>865</v>
+        <v>894</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6835,16 +6952,16 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="F136">
         <v>17</v>
       </c>
       <c r="G136" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="H136" t="s">
-        <v>839</v>
+        <v>868</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6861,16 +6978,16 @@
         <v>50</v>
       </c>
       <c r="E137" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="F137">
         <v>18</v>
       </c>
       <c r="G137" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="H137" t="s">
-        <v>754</v>
+        <v>783</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6887,16 +7004,16 @@
         <v>162</v>
       </c>
       <c r="E138" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="F138">
         <v>19</v>
       </c>
       <c r="G138" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="H138" t="s">
-        <v>866</v>
+        <v>895</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6913,16 +7030,16 @@
         <v>163</v>
       </c>
       <c r="E139" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="F139">
         <v>20</v>
       </c>
       <c r="G139" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
       <c r="H139" t="s">
-        <v>867</v>
+        <v>896</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6939,16 +7056,16 @@
         <v>164</v>
       </c>
       <c r="E140" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="F140">
         <v>21</v>
       </c>
       <c r="G140" t="s">
-        <v>633</v>
+        <v>652</v>
       </c>
       <c r="H140" t="s">
-        <v>868</v>
+        <v>897</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6965,16 +7082,16 @@
         <v>66</v>
       </c>
       <c r="E141" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="F141">
         <v>22</v>
       </c>
       <c r="G141" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="H141" t="s">
-        <v>770</v>
+        <v>799</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6991,16 +7108,16 @@
         <v>165</v>
       </c>
       <c r="E142" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F142">
         <v>23</v>
       </c>
       <c r="G142" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
       <c r="H142" t="s">
-        <v>869</v>
+        <v>898</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -7017,16 +7134,16 @@
         <v>166</v>
       </c>
       <c r="E143" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="F143">
         <v>24</v>
       </c>
       <c r="G143" t="s">
-        <v>635</v>
+        <v>654</v>
       </c>
       <c r="H143" t="s">
-        <v>870</v>
+        <v>899</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -7043,16 +7160,16 @@
         <v>43</v>
       </c>
       <c r="E144" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F144">
         <v>25</v>
       </c>
       <c r="G144" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="H144" t="s">
-        <v>747</v>
+        <v>776</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -7069,16 +7186,16 @@
         <v>167</v>
       </c>
       <c r="E145" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="F145">
         <v>26</v>
       </c>
       <c r="G145" t="s">
-        <v>636</v>
+        <v>655</v>
       </c>
       <c r="H145" t="s">
-        <v>871</v>
+        <v>900</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -7095,16 +7212,16 @@
         <v>129</v>
       </c>
       <c r="E146" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="F146">
         <v>27</v>
       </c>
       <c r="G146" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="H146" t="s">
-        <v>833</v>
+        <v>862</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -7121,16 +7238,16 @@
         <v>168</v>
       </c>
       <c r="E147" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="F147">
         <v>28</v>
       </c>
       <c r="G147" t="s">
-        <v>637</v>
+        <v>656</v>
       </c>
       <c r="H147" t="s">
-        <v>872</v>
+        <v>901</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -7147,16 +7264,16 @@
         <v>169</v>
       </c>
       <c r="E148" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="F148">
         <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>638</v>
+        <v>657</v>
       </c>
       <c r="H148" t="s">
-        <v>873</v>
+        <v>902</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -7173,16 +7290,16 @@
         <v>170</v>
       </c>
       <c r="E149" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="F149">
         <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
       <c r="H149" t="s">
-        <v>874</v>
+        <v>903</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -7199,16 +7316,16 @@
         <v>171</v>
       </c>
       <c r="E150" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="F150">
         <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
       <c r="H150" t="s">
-        <v>875</v>
+        <v>904</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -7225,16 +7342,16 @@
         <v>111</v>
       </c>
       <c r="E151" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="F151">
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="H151" t="s">
-        <v>815</v>
+        <v>844</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -7251,16 +7368,16 @@
         <v>172</v>
       </c>
       <c r="E152" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="F152">
         <v>2</v>
       </c>
       <c r="G152" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
       <c r="H152" t="s">
-        <v>876</v>
+        <v>905</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -7277,16 +7394,16 @@
         <v>173</v>
       </c>
       <c r="E153" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="F153">
         <v>3</v>
       </c>
       <c r="G153" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
       <c r="H153" t="s">
-        <v>877</v>
+        <v>906</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -7303,16 +7420,16 @@
         <v>174</v>
       </c>
       <c r="E154" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="F154">
         <v>4</v>
       </c>
       <c r="G154" t="s">
-        <v>643</v>
+        <v>662</v>
       </c>
       <c r="H154" t="s">
-        <v>878</v>
+        <v>907</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -7329,16 +7446,16 @@
         <v>80</v>
       </c>
       <c r="E155" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="F155">
         <v>5</v>
       </c>
       <c r="G155" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="H155" t="s">
-        <v>784</v>
+        <v>813</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -7355,16 +7472,16 @@
         <v>175</v>
       </c>
       <c r="E156" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="F156">
         <v>6</v>
       </c>
       <c r="G156" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
       <c r="H156" t="s">
-        <v>879</v>
+        <v>908</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -7381,16 +7498,16 @@
         <v>176</v>
       </c>
       <c r="E157" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="F157">
         <v>7</v>
       </c>
       <c r="G157" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="H157" t="s">
-        <v>880</v>
+        <v>909</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -7407,16 +7524,16 @@
         <v>56</v>
       </c>
       <c r="E158" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="F158">
         <v>8</v>
       </c>
       <c r="G158" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="H158" t="s">
-        <v>760</v>
+        <v>789</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -7433,16 +7550,16 @@
         <v>55</v>
       </c>
       <c r="E159" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="F159">
         <v>9</v>
       </c>
       <c r="G159" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="H159" t="s">
-        <v>759</v>
+        <v>788</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -7456,19 +7573,19 @@
         <v>32</v>
       </c>
       <c r="D160" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="E160" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="F160">
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>635</v>
+        <v>665</v>
       </c>
       <c r="H160" t="s">
-        <v>870</v>
+        <v>910</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -7482,19 +7599,19 @@
         <v>32</v>
       </c>
       <c r="D161" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E161" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="F161">
         <v>2</v>
       </c>
       <c r="G161" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="H161" t="s">
-        <v>881</v>
+        <v>911</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -7508,19 +7625,19 @@
         <v>32</v>
       </c>
       <c r="D162" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E162" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="F162">
         <v>3</v>
       </c>
       <c r="G162" t="s">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="H162" t="s">
-        <v>882</v>
+        <v>912</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -7534,19 +7651,19 @@
         <v>32</v>
       </c>
       <c r="D163" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E163" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="F163">
         <v>4</v>
       </c>
       <c r="G163" t="s">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="H163" t="s">
-        <v>883</v>
+        <v>913</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -7560,19 +7677,19 @@
         <v>32</v>
       </c>
       <c r="D164" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E164" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="F164">
         <v>5</v>
       </c>
       <c r="G164" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="H164" t="s">
-        <v>884</v>
+        <v>914</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -7586,19 +7703,19 @@
         <v>32</v>
       </c>
       <c r="D165" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="E165" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="F165">
         <v>6</v>
       </c>
       <c r="G165" t="s">
-        <v>533</v>
+        <v>670</v>
       </c>
       <c r="H165" t="s">
-        <v>767</v>
+        <v>915</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -7612,19 +7729,19 @@
         <v>32</v>
       </c>
       <c r="D166" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E166" t="s">
-        <v>309</v>
+        <v>428</v>
       </c>
       <c r="F166">
         <v>7</v>
       </c>
       <c r="G166" t="s">
-        <v>650</v>
+        <v>671</v>
       </c>
       <c r="H166" t="s">
-        <v>885</v>
+        <v>916</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -7638,19 +7755,19 @@
         <v>32</v>
       </c>
       <c r="D167" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E167" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="F167">
         <v>8</v>
       </c>
       <c r="G167" t="s">
-        <v>651</v>
+        <v>672</v>
       </c>
       <c r="H167" t="s">
-        <v>886</v>
+        <v>917</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -7664,19 +7781,19 @@
         <v>32</v>
       </c>
       <c r="D168" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E168" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="F168">
         <v>9</v>
       </c>
       <c r="G168" t="s">
-        <v>652</v>
+        <v>673</v>
       </c>
       <c r="H168" t="s">
-        <v>887</v>
+        <v>918</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7690,19 +7807,19 @@
         <v>32</v>
       </c>
       <c r="D169" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="E169" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="F169">
         <v>10</v>
       </c>
       <c r="G169" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="H169" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7716,19 +7833,19 @@
         <v>32</v>
       </c>
       <c r="D170" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E170" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="F170">
         <v>11</v>
       </c>
       <c r="G170" t="s">
-        <v>653</v>
+        <v>674</v>
       </c>
       <c r="H170" t="s">
-        <v>888</v>
+        <v>919</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7742,10 +7859,10 @@
         <v>32</v>
       </c>
       <c r="D171" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E171" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="F171">
         <v>12</v>
@@ -7754,7 +7871,7 @@
         <v>654</v>
       </c>
       <c r="H171" t="s">
-        <v>889</v>
+        <v>899</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7768,19 +7885,19 @@
         <v>32</v>
       </c>
       <c r="D172" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E172" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="F172">
         <v>13</v>
       </c>
       <c r="G172" t="s">
-        <v>655</v>
+        <v>675</v>
       </c>
       <c r="H172" t="s">
-        <v>890</v>
+        <v>920</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7794,19 +7911,19 @@
         <v>32</v>
       </c>
       <c r="D173" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E173" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="F173">
         <v>14</v>
       </c>
       <c r="G173" t="s">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="H173" t="s">
-        <v>891</v>
+        <v>921</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7820,877 +7937,877 @@
         <v>32</v>
       </c>
       <c r="D174" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>434</v>
       </c>
       <c r="F174">
         <v>15</v>
       </c>
       <c r="G174" t="s">
-        <v>577</v>
+        <v>677</v>
       </c>
       <c r="H174" t="s">
-        <v>812</v>
+        <v>922</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B175" t="s">
         <v>24</v>
       </c>
       <c r="C175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D175" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="E175" t="s">
-        <v>330</v>
+        <v>435</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G175" t="s">
-        <v>564</v>
+        <v>678</v>
       </c>
       <c r="H175" t="s">
-        <v>799</v>
+        <v>923</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
+        <v>16</v>
+      </c>
+      <c r="B176" t="s">
+        <v>24</v>
+      </c>
+      <c r="C176" t="s">
+        <v>32</v>
+      </c>
+      <c r="D176" t="s">
+        <v>63</v>
+      </c>
+      <c r="E176" t="s">
+        <v>308</v>
+      </c>
+      <c r="F176">
         <v>17</v>
       </c>
-      <c r="B176" t="s">
-        <v>24</v>
-      </c>
-      <c r="C176" t="s">
-        <v>33</v>
-      </c>
-      <c r="D176" t="s">
-        <v>188</v>
-      </c>
-      <c r="E176" t="s">
-        <v>423</v>
-      </c>
-      <c r="F176">
-        <v>2</v>
-      </c>
       <c r="G176" t="s">
-        <v>657</v>
+        <v>552</v>
       </c>
       <c r="H176" t="s">
-        <v>892</v>
+        <v>796</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B177" t="s">
         <v>24</v>
       </c>
       <c r="C177" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D177" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E177" t="s">
-        <v>424</v>
+        <v>319</v>
       </c>
       <c r="F177">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G177" t="s">
-        <v>658</v>
+        <v>679</v>
       </c>
       <c r="H177" t="s">
-        <v>893</v>
+        <v>924</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B178" t="s">
         <v>24</v>
       </c>
       <c r="C178" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D178" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E178" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="F178">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G178" t="s">
-        <v>659</v>
+        <v>680</v>
       </c>
       <c r="H178" t="s">
-        <v>894</v>
+        <v>925</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B179" t="s">
         <v>24</v>
       </c>
       <c r="C179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D179" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E179" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="F179">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G179" t="s">
-        <v>660</v>
+        <v>681</v>
       </c>
       <c r="H179" t="s">
-        <v>895</v>
+        <v>926</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B180" t="s">
         <v>24</v>
       </c>
       <c r="C180" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D180" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="E180" t="s">
-        <v>427</v>
+        <v>330</v>
       </c>
       <c r="F180">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G180" t="s">
-        <v>661</v>
+        <v>573</v>
       </c>
       <c r="H180" t="s">
-        <v>896</v>
+        <v>818</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B181" t="s">
         <v>24</v>
       </c>
       <c r="C181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D181" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E181" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="F181">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G181" t="s">
-        <v>662</v>
+        <v>682</v>
       </c>
       <c r="H181" t="s">
-        <v>897</v>
+        <v>927</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B182" t="s">
         <v>24</v>
       </c>
       <c r="C182" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D182" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E182" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="F182">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G182" t="s">
-        <v>663</v>
+        <v>683</v>
       </c>
       <c r="H182" t="s">
-        <v>898</v>
+        <v>928</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B183" t="s">
         <v>24</v>
       </c>
       <c r="C183" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D183" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E183" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="F183">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G183" t="s">
-        <v>664</v>
+        <v>684</v>
       </c>
       <c r="H183" t="s">
-        <v>899</v>
+        <v>929</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B184" t="s">
         <v>24</v>
       </c>
       <c r="C184" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D184" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E184" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F184">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G184" t="s">
-        <v>665</v>
+        <v>685</v>
       </c>
       <c r="H184" t="s">
-        <v>900</v>
+        <v>930</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B185" t="s">
         <v>24</v>
       </c>
       <c r="C185" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D185" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="E185" t="s">
-        <v>432</v>
+        <v>353</v>
       </c>
       <c r="F185">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G185" t="s">
-        <v>666</v>
+        <v>596</v>
       </c>
       <c r="H185" t="s">
-        <v>901</v>
+        <v>841</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B186" t="s">
         <v>24</v>
       </c>
       <c r="C186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D186" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="E186" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="F186">
         <v>1</v>
       </c>
       <c r="G186" t="s">
-        <v>613</v>
+        <v>583</v>
       </c>
       <c r="H186" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B187" t="s">
         <v>24</v>
       </c>
       <c r="C187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D187" t="s">
         <v>198</v>
       </c>
       <c r="E187" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="F187">
         <v>2</v>
       </c>
       <c r="G187" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="H187" t="s">
-        <v>902</v>
+        <v>931</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B188" t="s">
         <v>24</v>
       </c>
       <c r="C188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D188" t="s">
         <v>199</v>
       </c>
       <c r="E188" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="F188">
         <v>3</v>
       </c>
       <c r="G188" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="H188" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B189" t="s">
         <v>24</v>
       </c>
       <c r="C189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D189" t="s">
         <v>200</v>
       </c>
       <c r="E189" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="F189">
         <v>4</v>
       </c>
       <c r="G189" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="H189" t="s">
-        <v>904</v>
+        <v>933</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B190" t="s">
         <v>24</v>
       </c>
       <c r="C190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D190" t="s">
         <v>201</v>
       </c>
       <c r="E190" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="F190">
         <v>5</v>
       </c>
       <c r="G190" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="H190" t="s">
-        <v>905</v>
+        <v>934</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B191" t="s">
         <v>24</v>
       </c>
       <c r="C191" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D191" t="s">
         <v>202</v>
       </c>
       <c r="E191" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="F191">
         <v>6</v>
       </c>
       <c r="G191" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="H191" t="s">
-        <v>906</v>
+        <v>935</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B192" t="s">
         <v>24</v>
       </c>
       <c r="C192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D192" t="s">
         <v>203</v>
       </c>
       <c r="E192" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="F192">
         <v>7</v>
       </c>
       <c r="G192" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="H192" t="s">
-        <v>907</v>
+        <v>936</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B193" t="s">
         <v>24</v>
       </c>
       <c r="C193" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D193" t="s">
         <v>204</v>
       </c>
       <c r="E193" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="F193">
         <v>8</v>
       </c>
       <c r="G193" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="H193" t="s">
-        <v>908</v>
+        <v>937</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B194" t="s">
         <v>24</v>
       </c>
       <c r="C194" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D194" t="s">
         <v>205</v>
       </c>
       <c r="E194" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="F194">
         <v>9</v>
       </c>
       <c r="G194" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
       <c r="H194" t="s">
-        <v>909</v>
+        <v>938</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B195" t="s">
         <v>24</v>
       </c>
       <c r="C195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D195" t="s">
         <v>206</v>
       </c>
       <c r="E195" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="F195">
         <v>10</v>
       </c>
       <c r="G195" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="H195" t="s">
-        <v>910</v>
+        <v>939</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B196" t="s">
         <v>24</v>
       </c>
       <c r="C196" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D196" t="s">
         <v>207</v>
       </c>
       <c r="E196" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="F196">
         <v>11</v>
       </c>
       <c r="G196" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="H196" t="s">
-        <v>911</v>
+        <v>940</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B197" t="s">
         <v>24</v>
       </c>
       <c r="C197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D197" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="E197" t="s">
-        <v>312</v>
+        <v>389</v>
       </c>
       <c r="F197">
         <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>546</v>
+        <v>632</v>
       </c>
       <c r="H197" t="s">
-        <v>781</v>
+        <v>877</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B198" t="s">
         <v>24</v>
       </c>
       <c r="C198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D198" t="s">
         <v>208</v>
       </c>
       <c r="E198" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="F198">
         <v>2</v>
       </c>
       <c r="G198" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
       <c r="H198" t="s">
-        <v>912</v>
+        <v>941</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B199" t="s">
         <v>24</v>
       </c>
       <c r="C199" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D199" t="s">
         <v>209</v>
       </c>
       <c r="E199" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="F199">
         <v>3</v>
       </c>
       <c r="G199" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="H199" t="s">
-        <v>913</v>
+        <v>942</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B200" t="s">
         <v>24</v>
       </c>
       <c r="C200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D200" t="s">
         <v>210</v>
       </c>
       <c r="E200" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="F200">
         <v>4</v>
       </c>
       <c r="G200" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
       <c r="H200" t="s">
-        <v>914</v>
+        <v>943</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B201" t="s">
         <v>24</v>
       </c>
       <c r="C201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D201" t="s">
         <v>211</v>
       </c>
       <c r="E201" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="F201">
         <v>5</v>
       </c>
       <c r="G201" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
       <c r="H201" t="s">
-        <v>915</v>
+        <v>944</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B202" t="s">
         <v>24</v>
       </c>
       <c r="C202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D202" t="s">
         <v>212</v>
       </c>
       <c r="E202" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="F202">
         <v>6</v>
       </c>
       <c r="G202" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="H202" t="s">
-        <v>916</v>
+        <v>945</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B203" t="s">
         <v>24</v>
       </c>
       <c r="C203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D203" t="s">
         <v>213</v>
       </c>
       <c r="E203" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="F203">
         <v>7</v>
       </c>
       <c r="G203" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="H203" t="s">
-        <v>917</v>
+        <v>946</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B204" t="s">
         <v>24</v>
       </c>
       <c r="C204" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D204" t="s">
         <v>214</v>
       </c>
       <c r="E204" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="F204">
         <v>8</v>
       </c>
       <c r="G204" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="H204" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B205" t="s">
         <v>24</v>
       </c>
       <c r="C205" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D205" t="s">
         <v>215</v>
       </c>
       <c r="E205" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="F205">
         <v>9</v>
       </c>
       <c r="G205" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="H205" t="s">
-        <v>919</v>
+        <v>948</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B206" t="s">
         <v>24</v>
       </c>
       <c r="C206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D206" t="s">
         <v>216</v>
       </c>
       <c r="E206" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="F206">
         <v>10</v>
       </c>
       <c r="G206" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="H206" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B207" t="s">
         <v>24</v>
       </c>
       <c r="C207" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D207" t="s">
         <v>217</v>
       </c>
       <c r="E207" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="F207">
         <v>11</v>
       </c>
       <c r="G207" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="H207" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -8704,19 +8821,19 @@
         <v>35</v>
       </c>
       <c r="D208" t="s">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="E208" t="s">
-        <v>453</v>
+        <v>322</v>
       </c>
       <c r="F208">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G208" t="s">
-        <v>687</v>
+        <v>565</v>
       </c>
       <c r="H208" t="s">
-        <v>922</v>
+        <v>810</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -8730,24 +8847,24 @@
         <v>35</v>
       </c>
       <c r="D209" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E209" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="F209">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G209" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="H209" t="s">
-        <v>923</v>
+        <v>951</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B210" t="s">
         <v>24</v>
@@ -8756,24 +8873,24 @@
         <v>35</v>
       </c>
       <c r="D210" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E210" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G210" t="s">
-        <v>683</v>
+        <v>707</v>
       </c>
       <c r="H210" t="s">
-        <v>918</v>
+        <v>952</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B211" t="s">
         <v>24</v>
@@ -8785,21 +8902,21 @@
         <v>220</v>
       </c>
       <c r="E211" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="F211">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G211" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
       <c r="H211" t="s">
-        <v>924</v>
+        <v>953</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B212" t="s">
         <v>24</v>
@@ -8811,21 +8928,21 @@
         <v>221</v>
       </c>
       <c r="E212" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="F212">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G212" t="s">
-        <v>690</v>
+        <v>709</v>
       </c>
       <c r="H212" t="s">
-        <v>925</v>
+        <v>954</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B213" t="s">
         <v>24</v>
@@ -8837,21 +8954,21 @@
         <v>222</v>
       </c>
       <c r="E213" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F213">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G213" t="s">
-        <v>691</v>
+        <v>710</v>
       </c>
       <c r="H213" t="s">
-        <v>926</v>
+        <v>955</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B214" t="s">
         <v>24</v>
@@ -8863,21 +8980,21 @@
         <v>223</v>
       </c>
       <c r="E214" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="F214">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G214" t="s">
-        <v>692</v>
+        <v>711</v>
       </c>
       <c r="H214" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B215" t="s">
         <v>24</v>
@@ -8889,21 +9006,21 @@
         <v>224</v>
       </c>
       <c r="E215" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="F215">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G215" t="s">
-        <v>693</v>
+        <v>712</v>
       </c>
       <c r="H215" t="s">
-        <v>928</v>
+        <v>957</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B216" t="s">
         <v>24</v>
@@ -8915,21 +9032,21 @@
         <v>225</v>
       </c>
       <c r="E216" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="F216">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G216" t="s">
-        <v>694</v>
+        <v>713</v>
       </c>
       <c r="H216" t="s">
-        <v>929</v>
+        <v>958</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B217" t="s">
         <v>24</v>
@@ -8941,21 +9058,21 @@
         <v>226</v>
       </c>
       <c r="E217" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="F217">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G217" t="s">
-        <v>695</v>
+        <v>714</v>
       </c>
       <c r="H217" t="s">
-        <v>930</v>
+        <v>959</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B218" t="s">
         <v>24</v>
@@ -8967,21 +9084,21 @@
         <v>227</v>
       </c>
       <c r="E218" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="F218">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G218" t="s">
-        <v>696</v>
+        <v>715</v>
       </c>
       <c r="H218" t="s">
-        <v>931</v>
+        <v>960</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B219" t="s">
         <v>24</v>
@@ -8993,302 +9110,302 @@
         <v>228</v>
       </c>
       <c r="E219" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="F219">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G219" t="s">
-        <v>697</v>
+        <v>716</v>
       </c>
       <c r="H219" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B220" t="s">
         <v>24</v>
       </c>
       <c r="C220" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D220" t="s">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c r="E220" t="s">
-        <v>375</v>
+        <v>473</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G220" t="s">
-        <v>609</v>
+        <v>717</v>
       </c>
       <c r="H220" t="s">
-        <v>844</v>
+        <v>962</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B221" t="s">
         <v>24</v>
       </c>
       <c r="C221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D221" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E221" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="F221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G221" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="H221" t="s">
-        <v>933</v>
+        <v>957</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B222" t="s">
         <v>24</v>
       </c>
       <c r="C222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D222" t="s">
         <v>230</v>
       </c>
       <c r="E222" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="F222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G222" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
       <c r="H222" t="s">
-        <v>934</v>
+        <v>963</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B223" t="s">
         <v>24</v>
       </c>
       <c r="C223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D223" t="s">
-        <v>105</v>
+        <v>231</v>
       </c>
       <c r="E223" t="s">
-        <v>340</v>
+        <v>475</v>
       </c>
       <c r="F223">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G223" t="s">
-        <v>574</v>
+        <v>719</v>
       </c>
       <c r="H223" t="s">
-        <v>809</v>
+        <v>964</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B224" t="s">
         <v>24</v>
       </c>
       <c r="C224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D224" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E224" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="F224">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G224" t="s">
-        <v>700</v>
+        <v>720</v>
       </c>
       <c r="H224" t="s">
-        <v>935</v>
+        <v>965</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B225" t="s">
         <v>24</v>
       </c>
       <c r="C225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D225" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E225" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="F225">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G225" t="s">
-        <v>701</v>
+        <v>721</v>
       </c>
       <c r="H225" t="s">
-        <v>936</v>
+        <v>966</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B226" t="s">
         <v>24</v>
       </c>
       <c r="C226" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D226" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E226" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="F226">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G226" t="s">
-        <v>702</v>
+        <v>722</v>
       </c>
       <c r="H226" t="s">
-        <v>937</v>
+        <v>967</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B227" t="s">
         <v>24</v>
       </c>
       <c r="C227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D227" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E227" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="F227">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G227" t="s">
-        <v>703</v>
+        <v>723</v>
       </c>
       <c r="H227" t="s">
-        <v>938</v>
+        <v>968</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B228" t="s">
         <v>24</v>
       </c>
       <c r="C228" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D228" t="s">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="E228" t="s">
-        <v>385</v>
+        <v>480</v>
       </c>
       <c r="F228">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G228" t="s">
-        <v>619</v>
+        <v>724</v>
       </c>
       <c r="H228" t="s">
-        <v>854</v>
+        <v>969</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B229" t="s">
         <v>24</v>
       </c>
       <c r="C229" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D229" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E229" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="F229">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G229" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="H229" t="s">
-        <v>939</v>
+        <v>970</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B230" t="s">
         <v>24</v>
       </c>
       <c r="C230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D230" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E230" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="F230">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G230" t="s">
-        <v>705</v>
+        <v>726</v>
       </c>
       <c r="H230" t="s">
-        <v>940</v>
+        <v>971</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -9302,19 +9419,19 @@
         <v>36</v>
       </c>
       <c r="D231" t="s">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="E231" t="s">
-        <v>472</v>
+        <v>385</v>
       </c>
       <c r="F231">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>706</v>
+        <v>628</v>
       </c>
       <c r="H231" t="s">
-        <v>941</v>
+        <v>873</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -9328,19 +9445,19 @@
         <v>36</v>
       </c>
       <c r="D232" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E232" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="F232">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G232" t="s">
-        <v>707</v>
+        <v>727</v>
       </c>
       <c r="H232" t="s">
-        <v>942</v>
+        <v>972</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -9354,19 +9471,19 @@
         <v>36</v>
       </c>
       <c r="D233" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="E233" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="F233">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G233" t="s">
-        <v>697</v>
+        <v>728</v>
       </c>
       <c r="H233" t="s">
-        <v>932</v>
+        <v>973</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -9380,19 +9497,19 @@
         <v>36</v>
       </c>
       <c r="D234" t="s">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="E234" t="s">
-        <v>474</v>
+        <v>350</v>
       </c>
       <c r="F234">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G234" t="s">
-        <v>708</v>
+        <v>593</v>
       </c>
       <c r="H234" t="s">
-        <v>943</v>
+        <v>838</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -9406,19 +9523,19 @@
         <v>36</v>
       </c>
       <c r="D235" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E235" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="F235">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G235" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
       <c r="H235" t="s">
-        <v>944</v>
+        <v>974</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -9432,19 +9549,19 @@
         <v>36</v>
       </c>
       <c r="D236" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E236" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="F236">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G236" t="s">
-        <v>710</v>
+        <v>730</v>
       </c>
       <c r="H236" t="s">
-        <v>945</v>
+        <v>975</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -9458,19 +9575,19 @@
         <v>36</v>
       </c>
       <c r="D237" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E237" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="F237">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G237" t="s">
-        <v>711</v>
+        <v>731</v>
       </c>
       <c r="H237" t="s">
-        <v>946</v>
+        <v>976</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -9484,19 +9601,19 @@
         <v>36</v>
       </c>
       <c r="D238" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E238" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="F238">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G238" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="H238" t="s">
-        <v>947</v>
+        <v>977</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -9510,19 +9627,19 @@
         <v>36</v>
       </c>
       <c r="D239" t="s">
-        <v>244</v>
+        <v>150</v>
       </c>
       <c r="E239" t="s">
-        <v>479</v>
+        <v>395</v>
       </c>
       <c r="F239">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G239" t="s">
-        <v>713</v>
+        <v>638</v>
       </c>
       <c r="H239" t="s">
-        <v>948</v>
+        <v>883</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -9539,536 +9656,536 @@
         <v>245</v>
       </c>
       <c r="E240" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="F240">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G240" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
       <c r="H240" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B241" t="s">
         <v>24</v>
       </c>
       <c r="C241" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D241" t="s">
-        <v>86</v>
+        <v>246</v>
       </c>
       <c r="E241" t="s">
-        <v>321</v>
+        <v>490</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G241" t="s">
-        <v>555</v>
+        <v>734</v>
       </c>
       <c r="H241" t="s">
-        <v>790</v>
+        <v>979</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B242" t="s">
         <v>24</v>
       </c>
       <c r="C242" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D242" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E242" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="F242">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G242" t="s">
-        <v>715</v>
+        <v>735</v>
       </c>
       <c r="H242" t="s">
-        <v>950</v>
+        <v>980</v>
       </c>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B243" t="s">
         <v>24</v>
       </c>
       <c r="C243" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D243" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E243" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="F243">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G243" t="s">
-        <v>716</v>
+        <v>736</v>
       </c>
       <c r="H243" t="s">
-        <v>951</v>
+        <v>981</v>
       </c>
     </row>
     <row r="244" spans="1:8">
       <c r="A244" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B244" t="s">
         <v>24</v>
       </c>
       <c r="C244" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D244" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E244" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F244">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G244" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="H244" t="s">
-        <v>952</v>
+        <v>971</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B245" t="s">
         <v>24</v>
       </c>
       <c r="C245" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D245" t="s">
         <v>249</v>
       </c>
       <c r="E245" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F245">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G245" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="H245" t="s">
-        <v>953</v>
+        <v>982</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B246" t="s">
         <v>24</v>
       </c>
       <c r="C246" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D246" t="s">
         <v>250</v>
       </c>
       <c r="E246" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="F246">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G246" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="H246" t="s">
-        <v>954</v>
+        <v>983</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B247" t="s">
         <v>24</v>
       </c>
       <c r="C247" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D247" t="s">
         <v>251</v>
       </c>
       <c r="E247" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="F247">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G247" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="H247" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B248" t="s">
         <v>24</v>
       </c>
       <c r="C248" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D248" t="s">
         <v>252</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="F248">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G248" t="s">
-        <v>721</v>
+        <v>740</v>
       </c>
       <c r="H248" t="s">
-        <v>956</v>
+        <v>985</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B249" t="s">
         <v>24</v>
       </c>
       <c r="C249" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D249" t="s">
-        <v>104</v>
+        <v>253</v>
       </c>
       <c r="E249" t="s">
-        <v>339</v>
+        <v>497</v>
       </c>
       <c r="F249">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G249" t="s">
-        <v>573</v>
+        <v>741</v>
       </c>
       <c r="H249" t="s">
-        <v>808</v>
+        <v>986</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B250" t="s">
         <v>24</v>
       </c>
       <c r="C250" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D250" t="s">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c r="E250" t="s">
-        <v>318</v>
+        <v>498</v>
       </c>
       <c r="F250">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G250" t="s">
-        <v>552</v>
+        <v>742</v>
       </c>
       <c r="H250" t="s">
-        <v>787</v>
+        <v>987</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B251" t="s">
         <v>24</v>
       </c>
       <c r="C251" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D251" t="s">
-        <v>60</v>
+        <v>255</v>
       </c>
       <c r="E251" t="s">
-        <v>295</v>
+        <v>499</v>
       </c>
       <c r="F251">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G251" t="s">
-        <v>530</v>
+        <v>743</v>
       </c>
       <c r="H251" t="s">
-        <v>764</v>
+        <v>988</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B252" t="s">
         <v>24</v>
       </c>
       <c r="C252" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D252" t="s">
-        <v>253</v>
+        <v>86</v>
       </c>
       <c r="E252" t="s">
-        <v>488</v>
+        <v>331</v>
       </c>
       <c r="F252">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G252" t="s">
-        <v>722</v>
+        <v>574</v>
       </c>
       <c r="H252" t="s">
-        <v>957</v>
+        <v>819</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B253" t="s">
         <v>24</v>
       </c>
       <c r="C253" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D253" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="F253">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G253" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="H253" t="s">
-        <v>958</v>
+        <v>989</v>
       </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B254" t="s">
         <v>24</v>
       </c>
       <c r="C254" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D254" t="s">
-        <v>179</v>
+        <v>257</v>
       </c>
       <c r="E254" t="s">
-        <v>415</v>
+        <v>501</v>
       </c>
       <c r="F254">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G254" t="s">
-        <v>648</v>
+        <v>745</v>
       </c>
       <c r="H254" t="s">
-        <v>883</v>
+        <v>990</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B255" t="s">
         <v>24</v>
       </c>
       <c r="C255" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D255" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E255" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="F255">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G255" t="s">
-        <v>724</v>
+        <v>746</v>
       </c>
       <c r="H255" t="s">
-        <v>959</v>
+        <v>991</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B256" t="s">
         <v>24</v>
       </c>
       <c r="C256" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D256" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E256" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="F256">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G256" t="s">
-        <v>725</v>
+        <v>747</v>
       </c>
       <c r="H256" t="s">
-        <v>960</v>
+        <v>992</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B257" t="s">
         <v>24</v>
       </c>
       <c r="C257" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D257" t="s">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="E257" t="s">
-        <v>274</v>
+        <v>504</v>
       </c>
       <c r="F257">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G257" t="s">
-        <v>509</v>
+        <v>748</v>
       </c>
       <c r="H257" t="s">
-        <v>743</v>
+        <v>993</v>
       </c>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B258" t="s">
         <v>24</v>
       </c>
       <c r="C258" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D258" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E258" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="F258">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G258" t="s">
-        <v>726</v>
+        <v>749</v>
       </c>
       <c r="H258" t="s">
-        <v>961</v>
+        <v>994</v>
       </c>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B259" t="s">
         <v>24</v>
       </c>
       <c r="C259" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D259" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E259" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="F259">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G259" t="s">
-        <v>727</v>
+        <v>750</v>
       </c>
       <c r="H259" t="s">
-        <v>962</v>
+        <v>995</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B260" t="s">
         <v>24</v>
       </c>
       <c r="C260" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D260" t="s">
-        <v>259</v>
+        <v>104</v>
       </c>
       <c r="E260" t="s">
-        <v>494</v>
+        <v>349</v>
       </c>
       <c r="F260">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G260" t="s">
-        <v>728</v>
+        <v>592</v>
       </c>
       <c r="H260" t="s">
-        <v>963</v>
+        <v>837</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -10082,19 +10199,19 @@
         <v>38</v>
       </c>
       <c r="D261" t="s">
-        <v>260</v>
+        <v>83</v>
       </c>
       <c r="E261" t="s">
-        <v>495</v>
+        <v>328</v>
       </c>
       <c r="F261">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G261" t="s">
-        <v>729</v>
+        <v>571</v>
       </c>
       <c r="H261" t="s">
-        <v>964</v>
+        <v>816</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -10108,19 +10225,19 @@
         <v>38</v>
       </c>
       <c r="D262" t="s">
-        <v>261</v>
+        <v>60</v>
       </c>
       <c r="E262" t="s">
-        <v>496</v>
+        <v>305</v>
       </c>
       <c r="F262">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G262" t="s">
-        <v>730</v>
+        <v>549</v>
       </c>
       <c r="H262" t="s">
-        <v>965</v>
+        <v>793</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -10134,19 +10251,19 @@
         <v>38</v>
       </c>
       <c r="D263" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E263" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="F263">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G263" t="s">
-        <v>731</v>
+        <v>751</v>
       </c>
       <c r="H263" t="s">
-        <v>966</v>
+        <v>996</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -10160,19 +10277,19 @@
         <v>38</v>
       </c>
       <c r="D264" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E264" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="F264">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G264" t="s">
-        <v>732</v>
+        <v>752</v>
       </c>
       <c r="H264" t="s">
-        <v>967</v>
+        <v>997</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -10186,19 +10303,19 @@
         <v>38</v>
       </c>
       <c r="D265" t="s">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="E265" t="s">
-        <v>499</v>
+        <v>434</v>
       </c>
       <c r="F265">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G265" t="s">
-        <v>733</v>
+        <v>677</v>
       </c>
       <c r="H265" t="s">
-        <v>968</v>
+        <v>922</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -10215,16 +10332,16 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="F266">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G266" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="H266" t="s">
-        <v>969</v>
+        <v>998</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -10241,16 +10358,16 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="F267">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G267" t="s">
-        <v>735</v>
+        <v>754</v>
       </c>
       <c r="H267" t="s">
-        <v>970</v>
+        <v>999</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -10264,19 +10381,19 @@
         <v>38</v>
       </c>
       <c r="D268" t="s">
-        <v>267</v>
+        <v>39</v>
       </c>
       <c r="E268" t="s">
-        <v>502</v>
+        <v>284</v>
       </c>
       <c r="F268">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G268" t="s">
-        <v>736</v>
+        <v>528</v>
       </c>
       <c r="H268" t="s">
-        <v>971</v>
+        <v>772</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -10290,19 +10407,19 @@
         <v>38</v>
       </c>
       <c r="D269" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E269" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="F269">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G269" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="H269" t="s">
-        <v>972</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -10316,19 +10433,19 @@
         <v>38</v>
       </c>
       <c r="D270" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E270" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="F270">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G270" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="H270" t="s">
-        <v>973</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -10342,19 +10459,19 @@
         <v>38</v>
       </c>
       <c r="D271" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E271" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="F271">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G271" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="H271" t="s">
-        <v>974</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -10368,19 +10485,19 @@
         <v>38</v>
       </c>
       <c r="D272" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E272" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="F272">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G272" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="H272" t="s">
-        <v>975</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -10394,19 +10511,19 @@
         <v>38</v>
       </c>
       <c r="D273" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E273" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="F273">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G273" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="H273" t="s">
-        <v>976</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -10420,19 +10537,305 @@
         <v>38</v>
       </c>
       <c r="D274" t="s">
+        <v>272</v>
+      </c>
+      <c r="E274" t="s">
+        <v>516</v>
+      </c>
+      <c r="F274">
+        <v>14</v>
+      </c>
+      <c r="G274" t="s">
+        <v>760</v>
+      </c>
+      <c r="H274" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" t="s">
+        <v>23</v>
+      </c>
+      <c r="B275" t="s">
+        <v>24</v>
+      </c>
+      <c r="C275" t="s">
+        <v>38</v>
+      </c>
+      <c r="D275" t="s">
         <v>273</v>
       </c>
-      <c r="E274" t="s">
-        <v>508</v>
-      </c>
-      <c r="F274">
+      <c r="E275" t="s">
+        <v>517</v>
+      </c>
+      <c r="F275">
+        <v>15</v>
+      </c>
+      <c r="G275" t="s">
+        <v>761</v>
+      </c>
+      <c r="H275" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" t="s">
+        <v>23</v>
+      </c>
+      <c r="B276" t="s">
+        <v>24</v>
+      </c>
+      <c r="C276" t="s">
+        <v>38</v>
+      </c>
+      <c r="D276" t="s">
+        <v>274</v>
+      </c>
+      <c r="E276" t="s">
+        <v>518</v>
+      </c>
+      <c r="F276">
+        <v>16</v>
+      </c>
+      <c r="G276" t="s">
+        <v>762</v>
+      </c>
+      <c r="H276" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" t="s">
+        <v>23</v>
+      </c>
+      <c r="B277" t="s">
+        <v>24</v>
+      </c>
+      <c r="C277" t="s">
+        <v>38</v>
+      </c>
+      <c r="D277" t="s">
+        <v>275</v>
+      </c>
+      <c r="E277" t="s">
+        <v>519</v>
+      </c>
+      <c r="F277">
+        <v>17</v>
+      </c>
+      <c r="G277" t="s">
+        <v>763</v>
+      </c>
+      <c r="H277" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" t="s">
+        <v>23</v>
+      </c>
+      <c r="B278" t="s">
+        <v>24</v>
+      </c>
+      <c r="C278" t="s">
+        <v>38</v>
+      </c>
+      <c r="D278" t="s">
+        <v>276</v>
+      </c>
+      <c r="E278" t="s">
+        <v>520</v>
+      </c>
+      <c r="F278">
+        <v>18</v>
+      </c>
+      <c r="G278" t="s">
+        <v>764</v>
+      </c>
+      <c r="H278" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" t="s">
+        <v>23</v>
+      </c>
+      <c r="B279" t="s">
+        <v>24</v>
+      </c>
+      <c r="C279" t="s">
+        <v>38</v>
+      </c>
+      <c r="D279" t="s">
+        <v>277</v>
+      </c>
+      <c r="E279" t="s">
+        <v>521</v>
+      </c>
+      <c r="F279">
+        <v>19</v>
+      </c>
+      <c r="G279" t="s">
+        <v>765</v>
+      </c>
+      <c r="H279" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" t="s">
+        <v>23</v>
+      </c>
+      <c r="B280" t="s">
+        <v>24</v>
+      </c>
+      <c r="C280" t="s">
+        <v>38</v>
+      </c>
+      <c r="D280" t="s">
+        <v>278</v>
+      </c>
+      <c r="E280" t="s">
+        <v>522</v>
+      </c>
+      <c r="F280">
+        <v>20</v>
+      </c>
+      <c r="G280" t="s">
+        <v>766</v>
+      </c>
+      <c r="H280" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" t="s">
+        <v>23</v>
+      </c>
+      <c r="B281" t="s">
+        <v>24</v>
+      </c>
+      <c r="C281" t="s">
+        <v>38</v>
+      </c>
+      <c r="D281" t="s">
+        <v>279</v>
+      </c>
+      <c r="E281" t="s">
+        <v>523</v>
+      </c>
+      <c r="F281">
+        <v>21</v>
+      </c>
+      <c r="G281" t="s">
+        <v>767</v>
+      </c>
+      <c r="H281" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" t="s">
+        <v>23</v>
+      </c>
+      <c r="B282" t="s">
+        <v>24</v>
+      </c>
+      <c r="C282" t="s">
+        <v>38</v>
+      </c>
+      <c r="D282" t="s">
+        <v>280</v>
+      </c>
+      <c r="E282" t="s">
+        <v>524</v>
+      </c>
+      <c r="F282">
+        <v>22</v>
+      </c>
+      <c r="G282" t="s">
+        <v>768</v>
+      </c>
+      <c r="H282" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" t="s">
+        <v>23</v>
+      </c>
+      <c r="B283" t="s">
+        <v>24</v>
+      </c>
+      <c r="C283" t="s">
+        <v>38</v>
+      </c>
+      <c r="D283" t="s">
+        <v>281</v>
+      </c>
+      <c r="E283" t="s">
+        <v>525</v>
+      </c>
+      <c r="F283">
+        <v>23</v>
+      </c>
+      <c r="G283" t="s">
+        <v>769</v>
+      </c>
+      <c r="H283" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" t="s">
+        <v>23</v>
+      </c>
+      <c r="B284" t="s">
+        <v>24</v>
+      </c>
+      <c r="C284" t="s">
+        <v>38</v>
+      </c>
+      <c r="D284" t="s">
+        <v>282</v>
+      </c>
+      <c r="E284" t="s">
+        <v>526</v>
+      </c>
+      <c r="F284">
+        <v>24</v>
+      </c>
+      <c r="G284" t="s">
+        <v>770</v>
+      </c>
+      <c r="H284" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" t="s">
+        <v>23</v>
+      </c>
+      <c r="B285" t="s">
+        <v>24</v>
+      </c>
+      <c r="C285" t="s">
+        <v>38</v>
+      </c>
+      <c r="D285" t="s">
+        <v>283</v>
+      </c>
+      <c r="E285" t="s">
+        <v>527</v>
+      </c>
+      <c r="F285">
         <v>25</v>
       </c>
-      <c r="G274" t="s">
-        <v>742</v>
-      </c>
-      <c r="H274" t="s">
-        <v>977</v>
+      <c r="G285" t="s">
+        <v>771</v>
+      </c>
+      <c r="H285" t="s">
+        <v>1016</v>
       </c>
     </row>
   </sheetData>
